--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srividya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PSK_DESC" sheetId="1" r:id="rId1"/>
+    <sheet name="GOV_DESC" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Serial Number</t>
   </si>
@@ -42,6 +46,15 @@
   </si>
   <si>
     <t>Alias Description</t>
+  </si>
+  <si>
+    <t>Quanity</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Price Per Quantity</t>
   </si>
 </sst>
 </file>
@@ -118,8 +131,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,7 +438,7 @@
   <dimension ref="A1:F498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,4 +4463,4536 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G498"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="2"/>
+      <c r="G379" s="2"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" s="2"/>
+      <c r="F396" s="2"/>
+      <c r="G396" s="2"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
+      <c r="G397" s="2"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
+      <c r="G401" s="2"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
+      <c r="G402" s="2"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="2"/>
+      <c r="G408" s="2"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="2"/>
+      <c r="G409" s="2"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="2"/>
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2"/>
+      <c r="F430" s="2"/>
+      <c r="G430" s="2"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="2"/>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="2"/>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="2"/>
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="2"/>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+      <c r="E442" s="2"/>
+      <c r="F442" s="2"/>
+      <c r="G442" s="2"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="2"/>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="2"/>
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="2"/>
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="2"/>
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="2"/>
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
+      <c r="B455" s="2"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="2"/>
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="2"/>
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="2"/>
+      <c r="B458" s="2"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="2"/>
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="2"/>
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="2"/>
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="2"/>
+      <c r="B463" s="2"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="2"/>
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="2"/>
+      <c r="B466" s="2"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="2"/>
+      <c r="B467" s="2"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
+      <c r="B468" s="2"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="2"/>
+      <c r="B469" s="2"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="2"/>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="2"/>
+      <c r="B472" s="2"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="2"/>
+      <c r="B473" s="2"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+      <c r="E473" s="2"/>
+      <c r="F473" s="2"/>
+      <c r="G473" s="2"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="2"/>
+      <c r="B474" s="2"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
+      <c r="B475" s="2"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="2"/>
+      <c r="F475" s="2"/>
+      <c r="G475" s="2"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="2"/>
+      <c r="B476" s="2"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
+      <c r="G477" s="2"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="2"/>
+      <c r="B478" s="2"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+      <c r="E478" s="2"/>
+      <c r="F478" s="2"/>
+      <c r="G478" s="2"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="2"/>
+      <c r="B479" s="2"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
+      <c r="G479" s="2"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+      <c r="E480" s="2"/>
+      <c r="F480" s="2"/>
+      <c r="G480" s="2"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="2"/>
+      <c r="B481" s="2"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
+      <c r="B482" s="2"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+      <c r="E482" s="2"/>
+      <c r="F482" s="2"/>
+      <c r="G482" s="2"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+      <c r="E483" s="2"/>
+      <c r="F483" s="2"/>
+      <c r="G483" s="2"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="2"/>
+      <c r="B484" s="2"/>
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
+      <c r="E484" s="2"/>
+      <c r="F484" s="2"/>
+      <c r="G484" s="2"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="2"/>
+      <c r="B485" s="2"/>
+      <c r="C485" s="2"/>
+      <c r="D485" s="2"/>
+      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
+      <c r="G485" s="2"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2"/>
+      <c r="D486" s="2"/>
+      <c r="E486" s="2"/>
+      <c r="F486" s="2"/>
+      <c r="G486" s="2"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="2"/>
+      <c r="B487" s="2"/>
+      <c r="C487" s="2"/>
+      <c r="D487" s="2"/>
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="2"/>
+      <c r="B488" s="2"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
+      <c r="G488" s="2"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="2"/>
+      <c r="B489" s="2"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
+      <c r="G489" s="2"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="2"/>
+      <c r="B490" s="2"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
+      <c r="G490" s="2"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="2"/>
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+      <c r="E492" s="2"/>
+      <c r="F492" s="2"/>
+      <c r="G492" s="2"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
+      <c r="B493" s="2"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
+      <c r="G494" s="2"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+      <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
+      <c r="B496" s="2"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
+      <c r="G496" s="2"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
+      <c r="B497" s="2"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="2"/>
+      <c r="F497" s="2"/>
+      <c r="G497" s="2"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
+      <c r="B498" s="2"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+      <c r="F498" s="2"/>
+      <c r="G498" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C498">
+      <formula1>0.01</formula1>
+      <formula2>200000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D498">
+      <formula1>"BAG,CFT,CUM (m3),EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B498">
+      <formula1>"Main Work,Electrical,Plumbing"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srividya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSK_DESC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Serial Number</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Price Per Quantity</t>
+  </si>
+  <si>
+    <t>Base Description</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -127,6 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -4467,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G498"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,9 +4485,10 @@
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4505,8 +4510,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4514,8 +4522,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4523,8 +4532,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4532,8 +4542,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4541,8 +4552,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4550,8 +4562,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4559,8 +4572,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4568,8 +4582,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4577,8 +4592,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4586,8 +4602,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4595,8 +4612,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4604,8 +4622,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4613,8 +4632,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4622,8 +4642,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4631,8 +4652,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4640,8 +4662,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4649,8 +4672,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4658,8 +4682,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4667,8 +4692,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4676,8 +4702,9 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4685,8 +4712,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4694,8 +4722,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4703,8 +4732,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4712,8 +4742,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4721,8 +4752,9 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4730,8 +4762,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4739,8 +4772,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4748,8 +4782,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4757,8 +4792,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4766,8 +4802,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4775,8 +4812,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4784,8 +4822,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4793,8 +4832,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4802,8 +4842,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4811,8 +4852,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4820,8 +4862,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4829,8 +4872,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4838,8 +4882,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4847,8 +4892,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4856,8 +4902,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4865,8 +4912,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4874,8 +4922,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4883,8 +4932,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4892,8 +4942,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4901,8 +4952,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4910,8 +4962,9 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4919,8 +4972,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4928,8 +4982,9 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4937,8 +4992,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4946,8 +5002,9 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4955,8 +5012,9 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4964,8 +5022,9 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4973,8 +5032,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4982,8 +5042,9 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4991,8 +5052,9 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5000,8 +5062,9 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5009,8 +5072,9 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5018,8 +5082,9 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5027,8 +5092,9 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5036,8 +5102,9 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5045,8 +5112,9 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5054,8 +5122,9 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5063,8 +5132,9 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5072,8 +5142,9 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5081,8 +5152,9 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5090,8 +5162,9 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5099,8 +5172,9 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5108,8 +5182,9 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5117,8 +5192,9 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5126,8 +5202,9 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5135,8 +5212,9 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5144,8 +5222,9 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5153,8 +5232,9 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5162,8 +5242,9 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5171,8 +5252,9 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5180,8 +5262,9 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5189,8 +5272,9 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5198,8 +5282,9 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5207,8 +5292,9 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5216,8 +5302,9 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5225,8 +5312,9 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5234,8 +5322,9 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5243,8 +5332,9 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5252,8 +5342,9 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5261,8 +5352,9 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5270,8 +5362,9 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5279,8 +5372,9 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5288,8 +5382,9 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5297,8 +5392,9 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5306,8 +5402,9 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5315,8 +5412,9 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5324,8 +5422,9 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5333,8 +5432,9 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5342,8 +5442,9 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5351,8 +5452,9 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5360,8 +5462,9 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5369,8 +5472,9 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5378,8 +5482,9 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5387,8 +5492,9 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5396,8 +5502,9 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5405,8 +5512,9 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5414,8 +5522,9 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5423,8 +5532,9 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5432,8 +5542,9 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5441,8 +5552,9 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5450,8 +5562,9 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5459,8 +5572,9 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5468,8 +5582,9 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5477,8 +5592,9 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5486,8 +5602,9 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5495,8 +5612,9 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5504,8 +5622,9 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5513,8 +5632,9 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5522,8 +5642,9 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5531,8 +5652,9 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5540,8 +5662,9 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5549,8 +5672,9 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5558,8 +5682,9 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5567,8 +5692,9 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5576,8 +5702,9 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5585,8 +5712,9 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5594,8 +5722,9 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5603,8 +5732,9 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5612,8 +5742,9 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5621,8 +5752,9 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5630,8 +5762,9 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5639,8 +5772,9 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5648,8 +5782,9 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5657,8 +5792,9 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5666,8 +5802,9 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5675,8 +5812,9 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5684,8 +5822,9 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5693,8 +5832,9 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5702,8 +5842,9 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5711,8 +5852,9 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5720,8 +5862,9 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5729,8 +5872,9 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5738,8 +5882,9 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5747,8 +5892,9 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5756,8 +5902,9 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5765,8 +5912,9 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5774,8 +5922,9 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5783,8 +5932,9 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5792,8 +5942,9 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5801,8 +5952,9 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5810,8 +5962,9 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5819,8 +5972,9 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5828,8 +5982,9 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5837,8 +5992,9 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5846,8 +6002,9 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5855,8 +6012,9 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5864,8 +6022,9 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5873,8 +6032,9 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5882,8 +6042,9 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5891,8 +6052,9 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5900,8 +6062,9 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5909,8 +6072,9 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5918,8 +6082,9 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5927,8 +6092,9 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5936,8 +6102,9 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5945,8 +6112,9 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5954,8 +6122,9 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5963,8 +6132,9 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5972,8 +6142,9 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5981,8 +6152,9 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5990,8 +6162,9 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5999,8 +6172,9 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6008,8 +6182,9 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6017,8 +6192,9 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6026,8 +6202,9 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6035,8 +6212,9 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6044,8 +6222,9 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6053,8 +6232,9 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6062,8 +6242,9 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6071,8 +6252,9 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6080,8 +6262,9 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6089,8 +6272,9 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6098,8 +6282,9 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6107,8 +6292,9 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6116,8 +6302,9 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6125,8 +6312,9 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6134,8 +6322,9 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6143,8 +6332,9 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6152,8 +6342,9 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6161,8 +6352,9 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6170,8 +6362,9 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6179,8 +6372,9 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6188,8 +6382,9 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6197,8 +6392,9 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6206,8 +6402,9 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6215,8 +6412,9 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6224,8 +6422,9 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6233,8 +6432,9 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6242,8 +6442,9 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6251,8 +6452,9 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6260,8 +6462,9 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6269,8 +6472,9 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6278,8 +6482,9 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6287,8 +6492,9 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6296,8 +6502,9 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6305,8 +6512,9 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6314,8 +6522,9 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6323,8 +6532,9 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6332,8 +6542,9 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6341,8 +6552,9 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6350,8 +6562,9 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6359,8 +6572,9 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6368,8 +6582,9 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6377,8 +6592,9 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6386,8 +6602,9 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6395,8 +6612,9 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6404,8 +6622,9 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6413,8 +6632,9 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6422,8 +6642,9 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6431,8 +6652,9 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6440,8 +6662,9 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6449,8 +6672,9 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6458,8 +6682,9 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6467,8 +6692,9 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6476,8 +6702,9 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6485,8 +6712,9 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6494,8 +6722,9 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6503,8 +6732,9 @@
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6512,8 +6742,9 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6521,8 +6752,9 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6530,8 +6762,9 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6539,8 +6772,9 @@
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6548,8 +6782,9 @@
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6557,8 +6792,9 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6566,8 +6802,9 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6575,8 +6812,9 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6584,8 +6822,9 @@
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6593,8 +6832,9 @@
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6602,8 +6842,9 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6611,8 +6852,9 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6620,8 +6862,9 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6629,8 +6872,9 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6638,8 +6882,9 @@
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6647,8 +6892,9 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -6656,8 +6902,9 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -6665,8 +6912,9 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -6674,8 +6922,9 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -6683,8 +6932,9 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -6692,8 +6942,9 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -6701,8 +6952,9 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -6710,8 +6962,9 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -6719,8 +6972,9 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -6728,8 +6982,9 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -6737,8 +6992,9 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -6746,8 +7002,9 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -6755,8 +7012,9 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -6764,8 +7022,9 @@
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -6773,8 +7032,9 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -6782,8 +7042,9 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -6791,8 +7052,9 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -6800,8 +7062,9 @@
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -6809,8 +7072,9 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -6818,8 +7082,9 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -6827,8 +7092,9 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -6836,8 +7102,9 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -6845,8 +7112,9 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -6854,8 +7122,9 @@
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -6863,8 +7132,9 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -6872,8 +7142,9 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -6881,8 +7152,9 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -6890,8 +7162,9 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -6899,8 +7172,9 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -6908,8 +7182,9 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -6917,8 +7192,9 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -6926,8 +7202,9 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -6935,8 +7212,9 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -6944,8 +7222,9 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -6953,8 +7232,9 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -6962,8 +7242,9 @@
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -6971,8 +7252,9 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -6980,8 +7262,9 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -6989,8 +7272,9 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -6998,8 +7282,9 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -7007,8 +7292,9 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -7016,8 +7302,9 @@
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="3"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -7025,8 +7312,9 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -7034,8 +7322,9 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -7043,8 +7332,9 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -7052,8 +7342,9 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -7061,8 +7352,9 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="3"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -7070,8 +7362,9 @@
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -7079,8 +7372,9 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -7088,8 +7382,9 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -7097,8 +7392,9 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="3"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -7106,8 +7402,9 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -7115,8 +7412,9 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -7124,8 +7422,9 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -7133,8 +7432,9 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -7142,8 +7442,9 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="3"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -7151,8 +7452,9 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="3"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -7160,8 +7462,9 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -7169,8 +7472,9 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="3"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -7178,8 +7482,9 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="3"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -7187,8 +7492,9 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="3"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -7196,8 +7502,9 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -7205,8 +7512,9 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="3"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -7214,8 +7522,9 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -7223,8 +7532,9 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -7232,8 +7542,9 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -7241,8 +7552,9 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="3"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -7250,8 +7562,9 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -7259,8 +7572,9 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -7268,8 +7582,9 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -7277,8 +7592,9 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -7286,8 +7602,9 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -7295,8 +7612,9 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -7304,8 +7622,9 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -7313,8 +7632,9 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -7322,8 +7642,9 @@
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -7331,8 +7652,9 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -7340,8 +7662,9 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="3"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -7349,8 +7672,9 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -7358,8 +7682,9 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -7367,8 +7692,9 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="3"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -7376,8 +7702,9 @@
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -7385,8 +7712,9 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -7394,8 +7722,9 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" s="3"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -7403,8 +7732,9 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -7412,8 +7742,9 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -7421,8 +7752,9 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -7430,8 +7762,9 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -7439,8 +7772,9 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -7448,8 +7782,9 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -7457,8 +7792,9 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -7466,8 +7802,9 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -7475,8 +7812,9 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -7484,8 +7822,9 @@
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -7493,8 +7832,9 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" s="3"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -7502,8 +7842,9 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -7511,8 +7852,9 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" s="3"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -7520,8 +7862,9 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" s="3"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -7529,8 +7872,9 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" s="3"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -7538,8 +7882,9 @@
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" s="3"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -7547,8 +7892,9 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" s="3"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -7556,8 +7902,9 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" s="3"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -7565,8 +7912,9 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" s="3"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -7574,8 +7922,9 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" s="3"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -7583,8 +7932,9 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" s="3"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -7592,8 +7942,9 @@
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" s="3"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -7601,8 +7952,9 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" s="3"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7610,8 +7962,9 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" s="3"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7619,8 +7972,9 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7628,8 +7982,9 @@
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" s="3"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7637,8 +7992,9 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" s="3"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -7646,8 +8002,9 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" s="3"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7655,8 +8012,9 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" s="3"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7664,8 +8022,9 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" s="3"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7673,8 +8032,9 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" s="3"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7682,8 +8042,9 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" s="3"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7691,8 +8052,9 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" s="3"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7700,8 +8062,9 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" s="3"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -7709,8 +8072,9 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -7718,8 +8082,9 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -7727,8 +8092,9 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" s="3"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -7736,8 +8102,9 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" s="3"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -7745,8 +8112,9 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -7754,8 +8122,9 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -7763,8 +8132,9 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -7772,8 +8142,9 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -7781,8 +8152,9 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -7790,8 +8162,9 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -7799,8 +8172,9 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -7808,8 +8182,9 @@
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -7817,8 +8192,9 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -7826,8 +8202,9 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -7835,8 +8212,9 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -7844,8 +8222,9 @@
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372" s="3"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -7853,8 +8232,9 @@
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -7862,8 +8242,9 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374" s="3"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -7871,8 +8252,9 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375" s="3"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -7880,8 +8262,9 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376" s="3"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -7889,8 +8272,9 @@
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -7898,8 +8282,9 @@
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378" s="3"/>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -7907,8 +8292,9 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379" s="3"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -7916,8 +8302,9 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380" s="3"/>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -7925,8 +8312,9 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -7934,8 +8322,9 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382" s="3"/>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -7943,8 +8332,9 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383" s="3"/>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -7952,8 +8342,9 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -7961,8 +8352,9 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" s="3"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -7970,8 +8362,9 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386" s="3"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -7979,8 +8372,9 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387" s="3"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -7988,8 +8382,9 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388" s="3"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -7997,8 +8392,9 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389" s="3"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -8006,8 +8402,9 @@
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390" s="3"/>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -8015,8 +8412,9 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -8024,8 +8422,9 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392" s="3"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -8033,8 +8432,9 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393" s="3"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -8042,8 +8442,9 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -8051,8 +8452,9 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395" s="3"/>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -8060,8 +8462,9 @@
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396" s="3"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -8069,8 +8472,9 @@
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397" s="3"/>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -8078,8 +8482,9 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398" s="3"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -8087,8 +8492,9 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399" s="3"/>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -8096,8 +8502,9 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" s="3"/>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -8105,8 +8512,9 @@
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" s="3"/>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -8114,8 +8522,9 @@
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" s="3"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -8123,8 +8532,9 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" s="3"/>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -8132,8 +8542,9 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" s="3"/>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -8141,8 +8552,9 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" s="3"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8150,8 +8562,9 @@
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" s="3"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -8159,8 +8572,9 @@
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" s="3"/>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -8168,8 +8582,9 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" s="3"/>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -8177,8 +8592,9 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" s="3"/>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -8186,8 +8602,9 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" s="3"/>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -8195,8 +8612,9 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" s="3"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -8204,8 +8622,9 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" s="3"/>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -8213,8 +8632,9 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" s="3"/>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -8222,8 +8642,9 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" s="3"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -8231,8 +8652,9 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" s="3"/>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -8240,8 +8662,9 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" s="3"/>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -8249,8 +8672,9 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" s="3"/>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -8258,8 +8682,9 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" s="3"/>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -8267,8 +8692,9 @@
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" s="3"/>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -8276,8 +8702,9 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" s="3"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -8285,8 +8712,9 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" s="3"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -8294,8 +8722,9 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" s="3"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -8303,8 +8732,9 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" s="3"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -8312,8 +8742,9 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" s="3"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -8321,8 +8752,9 @@
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" s="3"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -8330,8 +8762,9 @@
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" s="3"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -8339,8 +8772,9 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" s="3"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -8348,8 +8782,9 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" s="3"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -8357,8 +8792,9 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" s="3"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -8366,8 +8802,9 @@
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" s="3"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -8375,8 +8812,9 @@
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" s="3"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -8384,8 +8822,9 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H432" s="3"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -8393,8 +8832,9 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H433" s="3"/>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -8402,8 +8842,9 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H434" s="3"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -8411,8 +8852,9 @@
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -8420,8 +8862,9 @@
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -8429,8 +8872,9 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -8438,8 +8882,9 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -8447,8 +8892,9 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -8456,8 +8902,9 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H440" s="3"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -8465,8 +8912,9 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H441" s="3"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -8474,8 +8922,9 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H442" s="3"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -8483,8 +8932,9 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H443" s="3"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -8492,8 +8942,9 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H444" s="3"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -8501,8 +8952,9 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H445" s="3"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -8510,8 +8962,9 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H446" s="3"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -8519,8 +8972,9 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H447" s="3"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -8528,8 +8982,9 @@
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H448" s="3"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -8537,8 +8992,9 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H449" s="3"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -8546,8 +9002,9 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H450" s="3"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -8555,8 +9012,9 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H451" s="3"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -8564,8 +9022,9 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H452" s="3"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -8573,8 +9032,9 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H453" s="3"/>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -8582,8 +9042,9 @@
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H454" s="3"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -8591,8 +9052,9 @@
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H455" s="3"/>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -8600,8 +9062,9 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H456" s="3"/>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -8609,8 +9072,9 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H457" s="3"/>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -8618,8 +9082,9 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -8627,8 +9092,9 @@
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H459" s="3"/>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -8636,8 +9102,9 @@
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H460" s="3"/>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -8645,8 +9112,9 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H461" s="3"/>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -8654,8 +9122,9 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H462" s="3"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -8663,8 +9132,9 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -8672,8 +9142,9 @@
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H464" s="3"/>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -8681,8 +9152,9 @@
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H465" s="3"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -8690,8 +9162,9 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H466" s="3"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -8699,8 +9172,9 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H467" s="3"/>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -8708,8 +9182,9 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H468" s="3"/>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -8717,8 +9192,9 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H469" s="3"/>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -8726,8 +9202,9 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H470" s="3"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -8735,8 +9212,9 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H471" s="3"/>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -8744,8 +9222,9 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H472" s="3"/>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -8753,8 +9232,9 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H473" s="3"/>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -8762,8 +9242,9 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H474" s="3"/>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -8771,8 +9252,9 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H475" s="3"/>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -8780,8 +9262,9 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H476" s="3"/>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -8789,8 +9272,9 @@
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H477" s="3"/>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -8798,8 +9282,9 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H478" s="3"/>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -8807,8 +9292,9 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H479" s="3"/>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -8816,8 +9302,9 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H480" s="3"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -8825,8 +9312,9 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H481" s="3"/>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -8834,8 +9322,9 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H482" s="3"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -8843,8 +9332,9 @@
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H483" s="3"/>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -8852,8 +9342,9 @@
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H484" s="3"/>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -8861,8 +9352,9 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H485" s="3"/>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -8870,8 +9362,9 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H486" s="3"/>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -8879,8 +9372,9 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H487" s="3"/>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -8888,8 +9382,9 @@
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H488" s="3"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -8897,8 +9392,9 @@
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H489" s="3"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -8906,8 +9402,9 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H490" s="3"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -8915,8 +9412,9 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H491" s="3"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -8924,8 +9422,9 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H492" s="3"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -8933,8 +9432,9 @@
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -8942,8 +9442,9 @@
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -8951,8 +9452,9 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -8960,8 +9462,9 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H496" s="3"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -8969,8 +9472,9 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H497" s="3"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -8978,6 +9482,7 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
+      <c r="H498" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srividya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srividya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Serial Number</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>Alias Description</t>
-  </si>
-  <si>
-    <t>Quanity</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Price Per Quantity</t>
   </si>
   <si>
     <t>Base Description</t>
@@ -122,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,7 +121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+    <sheetView topLeftCell="A493" workbookViewId="0">
+      <selection sqref="A1:F498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,10 +4461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:G498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4485,10 +4475,9 @@
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4496,25 +4485,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4522,9 +4508,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4532,9 +4517,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4542,9 +4526,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4552,9 +4535,8 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4562,9 +4544,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4572,9 +4553,8 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4582,9 +4562,8 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4592,9 +4571,8 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4602,9 +4580,8 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4612,9 +4589,8 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4622,9 +4598,8 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4632,9 +4607,8 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4642,9 +4616,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4652,9 +4625,8 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4662,9 +4634,8 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4672,9 +4643,8 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4682,9 +4652,8 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4692,9 +4661,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4702,9 +4670,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4712,9 +4679,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4722,9 +4688,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4732,9 +4697,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4742,9 +4706,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4752,9 +4715,8 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4762,9 +4724,8 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4772,9 +4733,8 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4782,9 +4742,8 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4792,9 +4751,8 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4802,9 +4760,8 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4812,9 +4769,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4822,9 +4778,8 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4832,9 +4787,8 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4842,9 +4796,8 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4852,9 +4805,8 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4862,9 +4814,8 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4872,9 +4823,8 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4882,9 +4832,8 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4892,9 +4841,8 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4902,9 +4850,8 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4912,9 +4859,8 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4922,9 +4868,8 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4932,9 +4877,8 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4942,9 +4886,8 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4952,9 +4895,8 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4962,9 +4904,8 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4972,9 +4913,8 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4982,9 +4922,8 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4992,9 +4931,8 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5002,9 +4940,8 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5012,9 +4949,8 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5022,9 +4958,8 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5032,9 +4967,8 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5042,9 +4976,8 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5052,9 +4985,8 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5062,9 +4994,8 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5072,9 +5003,8 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5082,9 +5012,8 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5092,9 +5021,8 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5102,9 +5030,8 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5112,9 +5039,8 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5122,9 +5048,8 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5132,9 +5057,8 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5142,9 +5066,8 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5152,9 +5075,8 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5162,9 +5084,8 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5172,9 +5093,8 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5182,9 +5102,8 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5192,9 +5111,8 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5202,9 +5120,8 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5212,9 +5129,8 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5222,9 +5138,8 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5232,9 +5147,8 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5242,9 +5156,8 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5252,9 +5165,8 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5262,9 +5174,8 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5272,9 +5183,8 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5282,9 +5192,8 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5292,9 +5201,8 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5302,9 +5210,8 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5312,9 +5219,8 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5322,9 +5228,8 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5332,9 +5237,8 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5342,9 +5246,8 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5352,9 +5255,8 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5362,9 +5264,8 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5372,9 +5273,8 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5382,9 +5282,8 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5392,9 +5291,8 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5402,9 +5300,8 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5412,9 +5309,8 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5422,9 +5318,8 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5432,9 +5327,8 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5442,9 +5336,8 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5452,9 +5345,8 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5462,9 +5354,8 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5472,9 +5363,8 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5482,9 +5372,8 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5492,9 +5381,8 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5502,9 +5390,8 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5512,9 +5399,8 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5522,9 +5408,8 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5532,9 +5417,8 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5542,9 +5426,8 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5552,9 +5435,8 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5562,9 +5444,8 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5572,9 +5453,8 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5582,9 +5462,8 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5592,9 +5471,8 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5602,9 +5480,8 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5612,9 +5489,8 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5622,9 +5498,8 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5632,9 +5507,8 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5642,9 +5516,8 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5652,9 +5525,8 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5662,9 +5534,8 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5672,9 +5543,8 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5682,9 +5552,8 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5692,9 +5561,8 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5702,9 +5570,8 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5712,9 +5579,8 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5722,9 +5588,8 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5732,9 +5597,8 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5742,9 +5606,8 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5752,9 +5615,8 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5762,9 +5624,8 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5772,9 +5633,8 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="3"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5782,9 +5642,8 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="3"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5792,9 +5651,8 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="3"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5802,9 +5660,8 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="3"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5812,9 +5669,8 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="3"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5822,9 +5678,8 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="3"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5832,9 +5687,8 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="3"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5842,9 +5696,8 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="3"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5852,9 +5705,8 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5862,9 +5714,8 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="3"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5872,9 +5723,8 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5882,9 +5732,8 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5892,9 +5741,8 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="3"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5902,9 +5750,8 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5912,9 +5759,8 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5922,9 +5768,8 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5932,9 +5777,8 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5942,9 +5786,8 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5952,9 +5795,8 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5962,9 +5804,8 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5972,9 +5813,8 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5982,9 +5822,8 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5992,9 +5831,8 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6002,9 +5840,8 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6012,9 +5849,8 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6022,9 +5858,8 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6032,9 +5867,8 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6042,9 +5876,8 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6052,9 +5885,8 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6062,9 +5894,8 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="3"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6072,9 +5903,8 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="3"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6082,9 +5912,8 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6092,9 +5921,8 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="3"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6102,9 +5930,8 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="3"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6112,9 +5939,8 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="3"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6122,9 +5948,8 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="3"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6132,9 +5957,8 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="3"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6142,9 +5966,8 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="3"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6152,9 +5975,8 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="3"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6162,9 +5984,8 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-      <c r="H166" s="3"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6172,9 +5993,8 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="3"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6182,9 +6002,8 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="3"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6192,9 +6011,8 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="3"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6202,9 +6020,8 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="3"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6212,9 +6029,8 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="3"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6222,9 +6038,8 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6232,9 +6047,8 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6242,9 +6056,8 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6252,9 +6065,8 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-      <c r="H175" s="3"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6262,9 +6074,8 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="3"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6272,9 +6083,8 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-      <c r="H177" s="3"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6282,9 +6092,8 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-      <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6292,9 +6101,8 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6302,9 +6110,8 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
-      <c r="H180" s="3"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6312,9 +6119,8 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
-      <c r="H181" s="3"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6322,9 +6128,8 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
-      <c r="H182" s="3"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6332,9 +6137,8 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
-      <c r="H183" s="3"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6342,9 +6146,8 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6352,9 +6155,8 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6362,9 +6164,8 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6372,9 +6173,8 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="3"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6382,9 +6182,8 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="3"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6392,9 +6191,8 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="3"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6402,9 +6200,8 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
-      <c r="H190" s="3"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6412,9 +6209,8 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
-      <c r="H191" s="3"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6422,9 +6218,8 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
-      <c r="H192" s="3"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6432,9 +6227,8 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
-      <c r="H193" s="3"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6442,9 +6236,8 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
-      <c r="H194" s="3"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6452,9 +6245,8 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
-      <c r="H195" s="3"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6462,9 +6254,8 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
-      <c r="H196" s="3"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6472,9 +6263,8 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
-      <c r="H197" s="3"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6482,9 +6272,8 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
-      <c r="H198" s="3"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6492,9 +6281,8 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
-      <c r="H199" s="3"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6502,9 +6290,8 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6512,9 +6299,8 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
-      <c r="H201" s="3"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6522,9 +6308,8 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-      <c r="H202" s="3"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6532,9 +6317,8 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-      <c r="H203" s="3"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6542,9 +6326,8 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
-      <c r="H204" s="3"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6552,9 +6335,8 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
-      <c r="H205" s="3"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6562,9 +6344,8 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
-      <c r="H206" s="3"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6572,9 +6353,8 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
-      <c r="H207" s="3"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6582,9 +6362,8 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
-      <c r="H208" s="3"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6592,9 +6371,8 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
-      <c r="H209" s="3"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6602,9 +6380,8 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
-      <c r="H210" s="3"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6612,9 +6389,8 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-      <c r="H211" s="3"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6622,9 +6398,8 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-      <c r="H212" s="3"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6632,9 +6407,8 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-      <c r="H213" s="3"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6642,9 +6416,8 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="3"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6652,9 +6425,8 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-      <c r="H215" s="3"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6662,9 +6434,8 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
-      <c r="H216" s="3"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6672,9 +6443,8 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
-      <c r="H217" s="3"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6682,9 +6452,8 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-      <c r="H218" s="3"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6692,9 +6461,8 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-      <c r="H219" s="3"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6702,9 +6470,8 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-      <c r="H220" s="3"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6712,9 +6479,8 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
-      <c r="H221" s="3"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6722,9 +6488,8 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-      <c r="H222" s="3"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6732,9 +6497,8 @@
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="3"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6742,9 +6506,8 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-      <c r="H224" s="3"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6752,9 +6515,8 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-      <c r="H225" s="3"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6762,9 +6524,8 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
-      <c r="H226" s="3"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6772,9 +6533,8 @@
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-      <c r="H227" s="3"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6782,9 +6542,8 @@
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
-      <c r="H228" s="3"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6792,9 +6551,8 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="3"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6802,9 +6560,8 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
-      <c r="H230" s="3"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6812,9 +6569,8 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="3"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6822,9 +6578,8 @@
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
-      <c r="H232" s="3"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6832,9 +6587,8 @@
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-      <c r="H233" s="3"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6842,9 +6596,8 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
-      <c r="H234" s="3"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6852,9 +6605,8 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-      <c r="H235" s="3"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6862,9 +6614,8 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="3"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6872,9 +6623,8 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
-      <c r="H237" s="3"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6882,9 +6632,8 @@
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
-      <c r="H238" s="3"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6892,9 +6641,8 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
-      <c r="H239" s="3"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -6902,9 +6650,8 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
-      <c r="H240" s="3"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -6912,9 +6659,8 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
-      <c r="H241" s="3"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -6922,9 +6668,8 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
-      <c r="H242" s="3"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -6932,9 +6677,8 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-      <c r="H243" s="3"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -6942,9 +6686,8 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
-      <c r="H244" s="3"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -6952,9 +6695,8 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
-      <c r="H245" s="3"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -6962,9 +6704,8 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
-      <c r="H246" s="3"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -6972,9 +6713,8 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
-      <c r="H247" s="3"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -6982,9 +6722,8 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
-      <c r="H248" s="3"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -6992,9 +6731,8 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
-      <c r="H249" s="3"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7002,9 +6740,8 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
-      <c r="H250" s="3"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7012,9 +6749,8 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
-      <c r="H251" s="3"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7022,9 +6758,8 @@
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
-      <c r="H252" s="3"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7032,9 +6767,8 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
-      <c r="H253" s="3"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7042,9 +6776,8 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
-      <c r="H254" s="3"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7052,9 +6785,8 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="3"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7062,9 +6794,8 @@
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
-      <c r="H256" s="3"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7072,9 +6803,8 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-      <c r="H257" s="3"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7082,9 +6812,8 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
-      <c r="H258" s="3"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7092,9 +6821,8 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
-      <c r="H259" s="3"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7102,9 +6830,8 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
-      <c r="H260" s="3"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7112,9 +6839,8 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="3"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7122,9 +6848,8 @@
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
-      <c r="H262" s="3"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7132,9 +6857,8 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-      <c r="H263" s="3"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7142,9 +6866,8 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
-      <c r="H264" s="3"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7152,9 +6875,8 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
-      <c r="H265" s="3"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7162,9 +6884,8 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
-      <c r="H266" s="3"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7172,9 +6893,8 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-      <c r="H267" s="3"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7182,9 +6902,8 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-      <c r="H268" s="3"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7192,9 +6911,8 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
-      <c r="H269" s="3"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7202,9 +6920,8 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-      <c r="H270" s="3"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7212,9 +6929,8 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
-      <c r="H271" s="3"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7222,9 +6938,8 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
-      <c r="H272" s="3"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7232,9 +6947,8 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-      <c r="H273" s="3"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7242,9 +6956,8 @@
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-      <c r="H274" s="3"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7252,9 +6965,8 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
-      <c r="H275" s="3"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -7262,9 +6974,8 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="3"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -7272,9 +6983,8 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
-      <c r="H277" s="3"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -7282,9 +6992,8 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
-      <c r="H278" s="3"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -7292,9 +7001,8 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
-      <c r="H279" s="3"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -7302,9 +7010,8 @@
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
-      <c r="H280" s="3"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -7312,9 +7019,8 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
-      <c r="H281" s="3"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -7322,9 +7028,8 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
-      <c r="H282" s="3"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -7332,9 +7037,8 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-      <c r="H283" s="3"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -7342,9 +7046,8 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-      <c r="H284" s="3"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -7352,9 +7055,8 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
-      <c r="H285" s="3"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -7362,9 +7064,8 @@
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
-      <c r="H286" s="3"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -7372,9 +7073,8 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
-      <c r="H287" s="3"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -7382,9 +7082,8 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
-      <c r="H288" s="3"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -7392,9 +7091,8 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
-      <c r="H289" s="3"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -7402,9 +7100,8 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-      <c r="H290" s="3"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -7412,9 +7109,8 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
-      <c r="H291" s="3"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -7422,9 +7118,8 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
-      <c r="H292" s="3"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -7432,9 +7127,8 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
-      <c r="H293" s="3"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -7442,9 +7136,8 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
-      <c r="H294" s="3"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -7452,9 +7145,8 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
-      <c r="H295" s="3"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -7462,9 +7154,8 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
-      <c r="H296" s="3"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -7472,9 +7163,8 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
-      <c r="H297" s="3"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -7482,9 +7172,8 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
-      <c r="H298" s="3"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -7492,9 +7181,8 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
-      <c r="H299" s="3"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -7502,9 +7190,8 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-      <c r="H300" s="3"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -7512,9 +7199,8 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
-      <c r="H301" s="3"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -7522,9 +7208,8 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
-      <c r="H302" s="3"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -7532,9 +7217,8 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
-      <c r="H303" s="3"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -7542,9 +7226,8 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
-      <c r="H304" s="3"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -7552,9 +7235,8 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
-      <c r="H305" s="3"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -7562,9 +7244,8 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
-      <c r="H306" s="3"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -7572,9 +7253,8 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
-      <c r="H307" s="3"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -7582,9 +7262,8 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
-      <c r="H308" s="3"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -7592,9 +7271,8 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
-      <c r="H309" s="3"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -7602,9 +7280,8 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
-      <c r="H310" s="3"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -7612,9 +7289,8 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
-      <c r="H311" s="3"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -7622,9 +7298,8 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
-      <c r="H312" s="3"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -7632,9 +7307,8 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
-      <c r="H313" s="3"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -7642,9 +7316,8 @@
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
-      <c r="H314" s="3"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -7652,9 +7325,8 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
-      <c r="H315" s="3"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -7662,9 +7334,8 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
-      <c r="H316" s="3"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -7672,9 +7343,8 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
-      <c r="H317" s="3"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -7682,9 +7352,8 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
-      <c r="H318" s="3"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -7692,9 +7361,8 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
-      <c r="H319" s="3"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -7702,9 +7370,8 @@
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
-      <c r="H320" s="3"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -7712,9 +7379,8 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
-      <c r="H321" s="3"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -7722,9 +7388,8 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
-      <c r="H322" s="3"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -7732,9 +7397,8 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-      <c r="H323" s="3"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -7742,9 +7406,8 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
-      <c r="H324" s="3"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -7752,9 +7415,8 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
-      <c r="H325" s="3"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -7762,9 +7424,8 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
-      <c r="H326" s="3"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -7772,9 +7433,8 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
-      <c r="H327" s="3"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -7782,9 +7442,8 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
-      <c r="H328" s="3"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -7792,9 +7451,8 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
-      <c r="H329" s="3"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -7802,9 +7460,8 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
-      <c r="H330" s="3"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -7812,9 +7469,8 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-      <c r="H331" s="3"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -7822,9 +7478,8 @@
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-      <c r="H332" s="3"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -7832,9 +7487,8 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
-      <c r="H333" s="3"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -7842,9 +7496,8 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
-      <c r="H334" s="3"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -7852,9 +7505,8 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
-      <c r="H335" s="3"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -7862,9 +7514,8 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
-      <c r="H336" s="3"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -7872,9 +7523,8 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
-      <c r="H337" s="3"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -7882,9 +7532,8 @@
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
-      <c r="H338" s="3"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -7892,9 +7541,8 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
-      <c r="H339" s="3"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -7902,9 +7550,8 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
-      <c r="H340" s="3"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -7912,9 +7559,8 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
-      <c r="H341" s="3"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -7922,9 +7568,8 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
-      <c r="H342" s="3"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -7932,9 +7577,8 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
-      <c r="H343" s="3"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -7942,9 +7586,8 @@
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
-      <c r="H344" s="3"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -7952,9 +7595,8 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
-      <c r="H345" s="3"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7962,9 +7604,8 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
-      <c r="H346" s="3"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7972,9 +7613,8 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
-      <c r="H347" s="3"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7982,9 +7622,8 @@
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
-      <c r="H348" s="3"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7992,9 +7631,8 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
-      <c r="H349" s="3"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -8002,9 +7640,8 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
-      <c r="H350" s="3"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -8012,9 +7649,8 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
-      <c r="H351" s="3"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -8022,9 +7658,8 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
-      <c r="H352" s="3"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -8032,9 +7667,8 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
-      <c r="H353" s="3"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -8042,9 +7676,8 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
-      <c r="H354" s="3"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -8052,9 +7685,8 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
-      <c r="H355" s="3"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -8062,9 +7694,8 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
-      <c r="H356" s="3"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -8072,9 +7703,8 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
-      <c r="H357" s="3"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -8082,9 +7712,8 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
-      <c r="H358" s="3"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -8092,9 +7721,8 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
-      <c r="H359" s="3"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -8102,9 +7730,8 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
-      <c r="H360" s="3"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -8112,9 +7739,8 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
-      <c r="H361" s="3"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -8122,9 +7748,8 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
-      <c r="H362" s="3"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -8132,9 +7757,8 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
-      <c r="H363" s="3"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -8142,9 +7766,8 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
-      <c r="H364" s="3"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -8152,9 +7775,8 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
-      <c r="H365" s="3"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -8162,9 +7784,8 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
-      <c r="H366" s="3"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -8172,9 +7793,8 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
-      <c r="H367" s="3"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -8182,9 +7802,8 @@
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
-      <c r="H368" s="3"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -8192,9 +7811,8 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
-      <c r="H369" s="3"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -8202,9 +7820,8 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
-      <c r="H370" s="3"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -8212,9 +7829,8 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
-      <c r="H371" s="3"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -8222,9 +7838,8 @@
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
-      <c r="H372" s="3"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -8232,9 +7847,8 @@
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
-      <c r="H373" s="3"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -8242,9 +7856,8 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
-      <c r="H374" s="3"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -8252,9 +7865,8 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
-      <c r="H375" s="3"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -8262,9 +7874,8 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
-      <c r="H376" s="3"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -8272,9 +7883,8 @@
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
-      <c r="H377" s="3"/>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -8282,9 +7892,8 @@
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
-      <c r="H378" s="3"/>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -8292,9 +7901,8 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
-      <c r="H379" s="3"/>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -8302,9 +7910,8 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
-      <c r="H380" s="3"/>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -8312,9 +7919,8 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
-      <c r="H381" s="3"/>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -8322,9 +7928,8 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
-      <c r="H382" s="3"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -8332,9 +7937,8 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
-      <c r="H383" s="3"/>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -8342,9 +7946,8 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
-      <c r="H384" s="3"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -8352,9 +7955,8 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
-      <c r="H385" s="3"/>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -8362,9 +7964,8 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
-      <c r="H386" s="3"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -8372,9 +7973,8 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
-      <c r="H387" s="3"/>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -8382,9 +7982,8 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
-      <c r="H388" s="3"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -8392,9 +7991,8 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
-      <c r="H389" s="3"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -8402,9 +8000,8 @@
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
-      <c r="H390" s="3"/>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -8412,9 +8009,8 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
-      <c r="H391" s="3"/>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -8422,9 +8018,8 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
-      <c r="H392" s="3"/>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -8432,9 +8027,8 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
-      <c r="H393" s="3"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -8442,9 +8036,8 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
-      <c r="H394" s="3"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -8452,9 +8045,8 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
-      <c r="H395" s="3"/>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -8462,9 +8054,8 @@
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
-      <c r="H396" s="3"/>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -8472,9 +8063,8 @@
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
-      <c r="H397" s="3"/>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -8482,9 +8072,8 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
-      <c r="H398" s="3"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -8492,9 +8081,8 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
-      <c r="H399" s="3"/>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -8502,9 +8090,8 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
-      <c r="H400" s="3"/>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -8512,9 +8099,8 @@
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
-      <c r="H401" s="3"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -8522,9 +8108,8 @@
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
-      <c r="H402" s="3"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -8532,9 +8117,8 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
-      <c r="H403" s="3"/>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -8542,9 +8126,8 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
-      <c r="H404" s="3"/>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -8552,9 +8135,8 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
-      <c r="H405" s="3"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8562,9 +8144,8 @@
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
-      <c r="H406" s="3"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -8572,9 +8153,8 @@
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
-      <c r="H407" s="3"/>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -8582,9 +8162,8 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
-      <c r="H408" s="3"/>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -8592,9 +8171,8 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
-      <c r="H409" s="3"/>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -8602,9 +8180,8 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
-      <c r="H410" s="3"/>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -8612,9 +8189,8 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
-      <c r="H411" s="3"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -8622,9 +8198,8 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
-      <c r="H412" s="3"/>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -8632,9 +8207,8 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
-      <c r="H413" s="3"/>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -8642,9 +8216,8 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
-      <c r="H414" s="3"/>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -8652,9 +8225,8 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
-      <c r="H415" s="3"/>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -8662,9 +8234,8 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
-      <c r="H416" s="3"/>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -8672,9 +8243,8 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
-      <c r="H417" s="3"/>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -8682,9 +8252,8 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
-      <c r="H418" s="3"/>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -8692,9 +8261,8 @@
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
-      <c r="H419" s="3"/>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -8702,9 +8270,8 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
-      <c r="H420" s="3"/>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -8712,9 +8279,8 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
-      <c r="H421" s="3"/>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -8722,9 +8288,8 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
-      <c r="H422" s="3"/>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -8732,9 +8297,8 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
-      <c r="H423" s="3"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -8742,9 +8306,8 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
-      <c r="H424" s="3"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -8752,9 +8315,8 @@
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
-      <c r="H425" s="3"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -8762,9 +8324,8 @@
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
-      <c r="H426" s="3"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -8772,9 +8333,8 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
-      <c r="H427" s="3"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -8782,9 +8342,8 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
-      <c r="H428" s="3"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -8792,9 +8351,8 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
-      <c r="H429" s="3"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -8802,9 +8360,8 @@
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
-      <c r="H430" s="3"/>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -8812,9 +8369,8 @@
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
-      <c r="H431" s="3"/>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -8822,9 +8378,8 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
-      <c r="H432" s="3"/>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -8832,9 +8387,8 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
-      <c r="H433" s="3"/>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -8842,9 +8396,8 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
-      <c r="H434" s="3"/>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -8852,9 +8405,8 @@
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
-      <c r="H435" s="3"/>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -8862,9 +8414,8 @@
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
-      <c r="H436" s="3"/>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -8872,9 +8423,8 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
-      <c r="H437" s="3"/>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -8882,9 +8432,8 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
-      <c r="H438" s="3"/>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -8892,9 +8441,8 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
-      <c r="H439" s="3"/>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -8902,9 +8450,8 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
-      <c r="H440" s="3"/>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -8912,9 +8459,8 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
-      <c r="H441" s="3"/>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -8922,9 +8468,8 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
-      <c r="H442" s="3"/>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -8932,9 +8477,8 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
-      <c r="H443" s="3"/>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -8942,9 +8486,8 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
-      <c r="H444" s="3"/>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -8952,9 +8495,8 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
-      <c r="H445" s="3"/>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -8962,9 +8504,8 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
-      <c r="H446" s="3"/>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -8972,9 +8513,8 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
-      <c r="H447" s="3"/>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -8982,9 +8522,8 @@
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
-      <c r="H448" s="3"/>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -8992,9 +8531,8 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
-      <c r="H449" s="3"/>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -9002,9 +8540,8 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
-      <c r="H450" s="3"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -9012,9 +8549,8 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
-      <c r="H451" s="3"/>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -9022,9 +8558,8 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
-      <c r="H452" s="3"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -9032,9 +8567,8 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
-      <c r="H453" s="3"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -9042,9 +8576,8 @@
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
-      <c r="H454" s="3"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -9052,9 +8585,8 @@
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
-      <c r="H455" s="3"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -9062,9 +8594,8 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
-      <c r="H456" s="3"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -9072,9 +8603,8 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
-      <c r="H457" s="3"/>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -9082,9 +8612,8 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
-      <c r="H458" s="3"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -9092,9 +8621,8 @@
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
-      <c r="H459" s="3"/>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -9102,9 +8630,8 @@
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
-      <c r="H460" s="3"/>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -9112,9 +8639,8 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
-      <c r="H461" s="3"/>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -9122,9 +8648,8 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
-      <c r="H462" s="3"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -9132,9 +8657,8 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
-      <c r="H463" s="3"/>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -9142,9 +8666,8 @@
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
-      <c r="H464" s="3"/>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -9152,9 +8675,8 @@
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
-      <c r="H465" s="3"/>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -9162,9 +8684,8 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
-      <c r="H466" s="3"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -9172,9 +8693,8 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
-      <c r="H467" s="3"/>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -9182,9 +8702,8 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
-      <c r="H468" s="3"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -9192,9 +8711,8 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
-      <c r="H469" s="3"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -9202,9 +8720,8 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
-      <c r="H470" s="3"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -9212,9 +8729,8 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
-      <c r="H471" s="3"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -9222,9 +8738,8 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
-      <c r="H472" s="3"/>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -9232,9 +8747,8 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
-      <c r="H473" s="3"/>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -9242,9 +8756,8 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
-      <c r="H474" s="3"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -9252,9 +8765,8 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
-      <c r="H475" s="3"/>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -9262,9 +8774,8 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
-      <c r="H476" s="3"/>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -9272,9 +8783,8 @@
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
-      <c r="H477" s="3"/>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -9282,9 +8792,8 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
-      <c r="H478" s="3"/>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -9292,9 +8801,8 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
-      <c r="H479" s="3"/>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -9302,9 +8810,8 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
-      <c r="H480" s="3"/>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -9312,9 +8819,8 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
-      <c r="H481" s="3"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -9322,9 +8828,8 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
-      <c r="H482" s="3"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -9332,9 +8837,8 @@
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
-      <c r="H483" s="3"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -9342,9 +8846,8 @@
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
-      <c r="H484" s="3"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -9352,9 +8855,8 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
-      <c r="H485" s="3"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -9362,9 +8864,8 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
-      <c r="H486" s="3"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -9372,9 +8873,8 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
-      <c r="H487" s="3"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -9382,9 +8882,8 @@
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
-      <c r="H488" s="3"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -9392,9 +8891,8 @@
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
-      <c r="H489" s="3"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -9402,9 +8900,8 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
-      <c r="H490" s="3"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -9412,9 +8909,8 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
-      <c r="H491" s="3"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -9422,9 +8918,8 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
-      <c r="H492" s="3"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -9432,9 +8927,8 @@
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
-      <c r="H493" s="3"/>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -9442,9 +8936,8 @@
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
-      <c r="H494" s="3"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -9452,9 +8945,8 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
-      <c r="H495" s="3"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -9462,9 +8954,8 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
-      <c r="H496" s="3"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -9472,9 +8963,8 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
-      <c r="H497" s="3"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -9482,7 +8972,6 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
-      <c r="H498" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srividya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="PSK_DESC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Serial Number</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Alias Description</t>
+  </si>
+  <si>
+    <t>Quanity</t>
+  </si>
+  <si>
+    <t>Metric</t>
   </si>
   <si>
     <t>Base Description</t>
@@ -429,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:F495"/>
   <sheetViews>
-    <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection sqref="A1:F498"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4417,39 +4423,15 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="F496" s="2"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="2"/>
-      <c r="F497" s="2"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="F498" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B498">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B495">
       <formula1>"Main Work,Electrical,Plumbing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D498">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D495">
       <formula1>"BAG,CFT,CUM (m3),EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C498">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C495">
       <formula1>0.01</formula1>
       <formula2>200000</formula2>
     </dataValidation>
@@ -4461,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G498"/>
+  <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4473,8 +4455,9 @@
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,10 +4468,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4497,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8955,34 +8938,16 @@
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="2"/>
-      <c r="F497" s="2"/>
-      <c r="G497" s="2"/>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="F498" s="2"/>
-      <c r="G498" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C498">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C496">
       <formula1>0.01</formula1>
       <formula2>200000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D498">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D496">
       <formula1>"BAG,CFT,CUM (m3),EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B498">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B496">
       <formula1>"Main Work,Electrical,Plumbing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\workspace\pms\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Serial Number</t>
   </si>
@@ -435,23 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F495"/>
+  <dimension ref="A1:G496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,3958 +462,4458 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="2"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="2"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="2"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="2"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="2"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="2"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="2"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="2"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="2"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="2"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="2"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="2"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="2"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="2"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="2"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="2"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="2"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="2"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="2"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="2"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="2"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="2"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="2"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="2"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="2"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="2"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="2"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" s="2"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" s="2"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" s="2"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" s="2"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" s="2"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="2"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" s="2"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" s="2"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="2"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" s="2"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" s="2"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" s="2"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" s="2"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" s="2"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" s="2"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" s="2"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" s="2"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" s="2"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" s="2"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" s="2"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" s="2"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" s="2"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" s="2"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" s="2"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" s="2"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" s="2"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340" s="2"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="2"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G348" s="2"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G349" s="2"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" s="2"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" s="2"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" s="2"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" s="2"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" s="2"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" s="2"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" s="2"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" s="2"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" s="2"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" s="2"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" s="2"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" s="2"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" s="2"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" s="2"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" s="2"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" s="2"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" s="2"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" s="2"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" s="2"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" s="2"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" s="2"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" s="2"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" s="2"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" s="2"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" s="2"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" s="2"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" s="2"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" s="2"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" s="2"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" s="2"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" s="2"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" s="2"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" s="2"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G389" s="2"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" s="2"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G391" s="2"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G392" s="2"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G393" s="2"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G394" s="2"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G395" s="2"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" s="2"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G397" s="2"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" s="2"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G399" s="2"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" s="2"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" s="2"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" s="2"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" s="2"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" s="2"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" s="2"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" s="2"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" s="2"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" s="2"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G409" s="2"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G410" s="2"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G411" s="2"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G412" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G413" s="2"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" s="2"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G415" s="2"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G416" s="2"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G417" s="2"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G418" s="2"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G419" s="2"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G420" s="2"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G421" s="2"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G422" s="2"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G423" s="2"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G424" s="2"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" s="2"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G426" s="2"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G427" s="2"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G428" s="2"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G429" s="2"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G430" s="2"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G431" s="2"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G432" s="2"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G433" s="2"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G434" s="2"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G436" s="2"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G437" s="2"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G438" s="2"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G439" s="2"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G440" s="2"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G442" s="2"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G443" s="2"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G444" s="2"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G445" s="2"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G446" s="2"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G447" s="2"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G448" s="2"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G449" s="2"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G450" s="2"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G451" s="2"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G452" s="2"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G453" s="2"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G454" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G455" s="2"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G456" s="2"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G457" s="2"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G458" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G459" s="2"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G460" s="2"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G461" s="2"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G462" s="2"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G463" s="2"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G464" s="2"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G465" s="2"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G466" s="2"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G467" s="2"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G468" s="2"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G469" s="2"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G470" s="2"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G471" s="2"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G472" s="2"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G473" s="2"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G474" s="2"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G475" s="2"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G476" s="2"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G477" s="2"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G478" s="2"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G479" s="2"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G480" s="2"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G481" s="2"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G482" s="2"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G483" s="2"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G484" s="2"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G485" s="2"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G486" s="2"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G487" s="2"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G488" s="2"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G489" s="2"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G490" s="2"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G491" s="2"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G492" s="2"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G493" s="2"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G494" s="2"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G496" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -4446,19 +4938,10 @@
   <dimension ref="A1:G496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSK_DESC" sheetId="1" r:id="rId1"/>
@@ -28,18 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Serial Number</t>
   </si>
   <si>
     <t>Work Type</t>
-  </si>
-  <si>
-    <t>Quanity In Figures</t>
-  </si>
-  <si>
-    <t>Quantity In Unit</t>
   </si>
   <si>
     <t>Description</t>
@@ -48,13 +42,13 @@
     <t>Alias Description</t>
   </si>
   <si>
-    <t>Quanity</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
     <t>Base Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -437,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +445,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4937,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,16 +4948,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\workspace\pms\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\Desktop\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="PSK_DESC" sheetId="1" r:id="rId1"/>
-    <sheet name="GOV_DESC" sheetId="2" r:id="rId2"/>
+    <sheet name="DESCRIPTION" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Serial Number</t>
   </si>
@@ -431,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4925,4510 +4924,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G496"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
-      <c r="G308" s="2"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
-      <c r="G314" s="2"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-      <c r="F315" s="2"/>
-      <c r="G315" s="2"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="2"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
-      <c r="G320" s="2"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2"/>
-      <c r="G324" s="2"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="F328" s="2"/>
-      <c r="G328" s="2"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
-      <c r="G335" s="2"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
-      <c r="G337" s="2"/>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="F341" s="2"/>
-      <c r="G341" s="2"/>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
-      <c r="G347" s="2"/>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-      <c r="G348" s="2"/>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
-      <c r="G349" s="2"/>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
-      <c r="F350" s="2"/>
-      <c r="G350" s="2"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-      <c r="F352" s="2"/>
-      <c r="G352" s="2"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="F364" s="2"/>
-      <c r="G364" s="2"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="2"/>
-      <c r="G375" s="2"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-      <c r="E377" s="2"/>
-      <c r="F377" s="2"/>
-      <c r="G377" s="2"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-      <c r="E381" s="2"/>
-      <c r="F381" s="2"/>
-      <c r="G381" s="2"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2"/>
-      <c r="F387" s="2"/>
-      <c r="G387" s="2"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
-      <c r="F396" s="2"/>
-      <c r="G396" s="2"/>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-      <c r="E401" s="2"/>
-      <c r="F401" s="2"/>
-      <c r="G401" s="2"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
-      <c r="G405" s="2"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
-      <c r="F406" s="2"/>
-      <c r="G406" s="2"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
-      <c r="F407" s="2"/>
-      <c r="G407" s="2"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="2"/>
-      <c r="F408" s="2"/>
-      <c r="G408" s="2"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
-      <c r="F414" s="2"/>
-      <c r="G414" s="2"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2"/>
-      <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="2"/>
-      <c r="F465" s="2"/>
-      <c r="G465" s="2"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-      <c r="E469" s="2"/>
-      <c r="F469" s="2"/>
-      <c r="G469" s="2"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="2"/>
-      <c r="F473" s="2"/>
-      <c r="G473" s="2"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="2"/>
-      <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-      <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
-      <c r="G476" s="2"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="2"/>
-      <c r="F477" s="2"/>
-      <c r="G477" s="2"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-      <c r="E478" s="2"/>
-      <c r="F478" s="2"/>
-      <c r="G478" s="2"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-      <c r="E480" s="2"/>
-      <c r="F480" s="2"/>
-      <c r="G480" s="2"/>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-      <c r="E481" s="2"/>
-      <c r="F481" s="2"/>
-      <c r="G481" s="2"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-      <c r="E482" s="2"/>
-      <c r="F482" s="2"/>
-      <c r="G482" s="2"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="2"/>
-      <c r="F483" s="2"/>
-      <c r="G483" s="2"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="2"/>
-      <c r="F484" s="2"/>
-      <c r="G484" s="2"/>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="2"/>
-      <c r="F485" s="2"/>
-      <c r="G485" s="2"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="2"/>
-      <c r="F486" s="2"/>
-      <c r="G486" s="2"/>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-      <c r="E487" s="2"/>
-      <c r="F487" s="2"/>
-      <c r="G487" s="2"/>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-      <c r="E490" s="2"/>
-      <c r="F490" s="2"/>
-      <c r="G490" s="2"/>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-      <c r="E491" s="2"/>
-      <c r="F491" s="2"/>
-      <c r="G491" s="2"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-      <c r="E492" s="2"/>
-      <c r="F492" s="2"/>
-      <c r="G492" s="2"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="2"/>
-      <c r="F493" s="2"/>
-      <c r="G493" s="2"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="F496" s="2"/>
-      <c r="G496" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C496">
-      <formula1>0.01</formula1>
-      <formula2>200000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D496">
-      <formula1>"BAG,CFT,CUM (m3),EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B496">
-      <formula1>"Main Work,Electrical,Plumbing"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/ProjectDescription.xlsx
+++ b/src/main/resources/ProjectDescription.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajithkv\Desktop\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srividya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,12 +4913,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B495">
       <formula1>"Main Work,Electrical,Plumbing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D495">
-      <formula1>"BAG,CFT,CUM (m3),EACH,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
-    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C495">
       <formula1>0.01</formula1>
       <formula2>200000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D495">
+      <formula1>"BAG,CFT,CUM (m3),EACH,Hours,KG,LIT,MT,NOS,QUINTAL,RFT,RM,SQFT,SQM,UNIT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
